--- a/mMonitoreoTeoricos/formatos/COM GARZA REYNA.xlsx
+++ b/mMonitoreoTeoricos/formatos/COM GARZA REYNA.xlsx
@@ -24,21 +24,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>071287856444</t>
   </si>
   <si>
-    <t>602499161011</t>
-  </si>
-  <si>
-    <t>602499161530</t>
-  </si>
-  <si>
-    <t>602499161547</t>
-  </si>
-  <si>
-    <t>602499161554</t>
+    <t xml:space="preserve">CODIGO </t>
+  </si>
+  <si>
+    <t>718644080714</t>
+  </si>
+  <si>
+    <t>718644080707</t>
+  </si>
+  <si>
+    <t>706347001198</t>
+  </si>
+  <si>
+    <t>718644080868</t>
+  </si>
+  <si>
+    <t>718644080851</t>
+  </si>
+  <si>
+    <t>7502242342229</t>
+  </si>
+  <si>
+    <t>7502242342212</t>
+  </si>
+  <si>
+    <t>7502242342205</t>
   </si>
   <si>
     <t>706347000870</t>
@@ -77,26 +92,14 @@
     <t>7501140700636</t>
   </si>
   <si>
-    <t>7501608620261</t>
-  </si>
-  <si>
-    <t>7503002398043</t>
-  </si>
-  <si>
-    <t>7503002398050</t>
-  </si>
-  <si>
-    <t>7506196298007</t>
-  </si>
-  <si>
-    <t>7506196298960</t>
+    <t>7502242342625</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,21 +107,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -127,12 +158,125 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -408,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -421,115 +565,129 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A23">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>